--- a/first_results.xlsx
+++ b/first_results.xlsx
@@ -5,19 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Matteo's result" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Newest" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="133">
   <si>
     <t>Estimated parameter</t>
   </si>
@@ -329,6 +330,93 @@
   </si>
   <si>
     <t>VoT</t>
+  </si>
+  <si>
+    <t>number of iterations</t>
+  </si>
+  <si>
+    <t>Best Error</t>
+  </si>
+  <si>
+    <t>roadkm</t>
+  </si>
+  <si>
+    <t>railkm</t>
+  </si>
+  <si>
+    <t>iwwAttrO</t>
+  </si>
+  <si>
+    <t>iwwAttrD</t>
+  </si>
+  <si>
+    <t>286.48713 499.99964 225.03733 -43.11601 241.83892 344.16779 381.78560 499.99999</t>
+  </si>
+  <si>
+    <t> 12.16866  291.35540  481.15291  475.33712  499.99999  251.76867 -220.90125</t>
+  </si>
+  <si>
+    <t>-476.7332  189.1158 -131.1494 -107.4275  499.8106  253.1235 -113.2185 -500.0000</t>
+  </si>
+  <si>
+    <t>43.75769 -315.96262 -122.57571 -274.15935 -499.99999 -184.31692  254.59880</t>
+  </si>
+  <si>
+    <t>139.1953 -500.0000 -500.0000 -499.9999 -500.0000 -500.0000 -412.7903  251.6671</t>
+  </si>
+  <si>
+    <t>-496.3187  158.5501 -500.0000 -276.9933 -499.9052 -313.2950 -500.0000 -500.0000</t>
+  </si>
+  <si>
+    <t> 499.99999 426.83556</t>
+  </si>
+  <si>
+    <t> 499.99753  362.78461   40.61545</t>
+  </si>
+  <si>
+    <t> [9] -500.0000  -80.5209</t>
+  </si>
+  <si>
+    <t> [8]  390.19690 -151.37198   57.81151</t>
+  </si>
+  <si>
+    <t> [9]  113.7319 -233.3741</t>
+  </si>
+  <si>
+    <t> [9] -499.9980 -500.0000</t>
+  </si>
+  <si>
+    <t>[1] -0.9435888</t>
+  </si>
+  <si>
+    <t>[1] -0.9364485</t>
+  </si>
+  <si>
+    <t>[1] 2.741259e-08</t>
+  </si>
+  <si>
+    <t>[1] 0.9999999</t>
+  </si>
+  <si>
+    <t>[1] 2.542089e-08</t>
+  </si>
+  <si>
+    <t>[1] 0.4</t>
+  </si>
+  <si>
+    <t>[1] -0.265276</t>
+  </si>
+  <si>
+    <t>[1] -0.9999997</t>
+  </si>
+  <si>
+    <t>[1] -0.9999999</t>
+  </si>
+  <si>
+    <t>[1] -1</t>
+  </si>
+  <si>
+    <t>[1] 0.9999953</t>
   </si>
 </sst>
 </file>
@@ -1499,10 +1587,842 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S164"/>
+  <dimension ref="A1:U65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q33" activeCellId="0" sqref="Q33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-381.1125</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>276.0985</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>806.1937</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>532.2657</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>557.6206</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>179.3512</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>-316.3426</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>-396.7713</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>22.057463</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>82.738707</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>9.843316</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>-48.916475</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>-486.911819</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.4101922</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>376.58404</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>626.14731</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>706.25631</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>226.06241</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>-22.44186</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>409.11195</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>543.48761</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="0" t="n">
+        <v>359.40722</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>511.93327</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>355.35768</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>-72.74235</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>232.96923</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>918.23477</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>908.32096</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>572.15226</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="n">
+        <v>-246.3809</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>215.26562</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>254.20185</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>-27.59195</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>-388.82583</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>438.07615</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>888.54674</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>552.11677</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>-9.49185</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>-839.42366</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>-699.59722</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>-123.77141</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>-20.79029</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>-664.43508</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>-327.21249</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>-535.67496</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>-54.94573</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>286.70563</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>277.51317</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>-382.62647</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>-27.33906</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>22.057463</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>82.738707</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>9.843316</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>-48.916475</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>-486.911819</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>-381.1125</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>276.0985</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>806.1937</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>532.2657</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>557.6206</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>179.3512</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>-316.3426</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>-396.7713</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="T26" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>-5.408366E-005</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>-0.9999999</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>-0.9999999</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q27" s="6" t="n">
+        <v>-1.007642E-011</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T27" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="T29" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>-0.2250489</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="S30" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T30" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>-0.9999989</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="R32" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="T32" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>-0.9999999</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>-0.9999987</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>-0.9999999</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q33" s="6" t="n">
+        <v>-1.105466E-011</v>
+      </c>
+      <c r="R33" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T33" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="R35" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="T35" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R36" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="T36" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1510,928 +2430,472 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>-381.1125</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>276.0985</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>806.1937</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>532.2657</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>557.6206</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>179.3512</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>-316.3426</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>-396.7713</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>363446647830</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>22.057463</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>82.738707</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>9.843316</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>-48.916475</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>-486.911819</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.4101922</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="B4" s="4" t="n">
+        <v>0.215453</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>1.944865E-008</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>1.58391</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>376.58404</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>626.14731</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>706.25631</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>226.06241</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>-22.44186</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>409.11195</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>543.48761</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="0" t="n">
-        <v>359.40722</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>511.93327</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>355.35768</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="C7" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>-72.74235</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>232.96923</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>918.23477</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>908.32096</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>572.15226</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="n">
-        <v>-246.3809</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>215.26562</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>254.20185</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>-27.59195</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>-388.82583</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>438.07615</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>888.54674</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>552.11677</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>-9.49185</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>-839.42366</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>-699.59722</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>-123.77141</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>-20.79029</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>-664.43508</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>-327.21249</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>-535.67496</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="L20" s="0" t="n">
-        <v>-54.94573</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>286.70563</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>277.51317</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>-382.62647</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>-27.33906</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>22.057463</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>82.738707</v>
-      </c>
-      <c r="L23" s="0" t="n">
-        <v>9.843316</v>
-      </c>
-      <c r="O23" s="0" t="n">
-        <v>-48.916475</v>
-      </c>
-      <c r="Q23" s="0" t="n">
-        <v>-486.911819</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>-381.1125</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>276.0985</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>806.1937</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>532.2657</v>
-      </c>
-      <c r="N24" s="0" t="n">
-        <v>557.6206</v>
-      </c>
-      <c r="Q24" s="0" t="n">
-        <v>179.3512</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>-316.3426</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>-396.7713</v>
-      </c>
-    </row>
+      <c r="F7" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="6" t="n">
-        <v>-5.408366E-005</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>-0.9999989</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>-0.9999999</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>-0.9999999</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" s="0" t="n">
-        <v>-0.9999999</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>-0.2250489</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" s="0" t="n">
-        <v>-0.9999987</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C63" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C68" s="0" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C71" s="0" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C74" s="0" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C77" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C82" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C85" s="0" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C88" s="0" t="n">
-        <v>-0.9999999</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C91" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C96" s="0" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C99" s="0" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C102" s="0" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C105" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C110" s="0" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C113" s="0" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C116" s="0" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C119" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C124" s="6" t="n">
-        <v>-1.007642E-011</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C127" s="0" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C130" s="6" t="n">
-        <v>-1.105466E-011</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C133" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C138" s="0" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C141" s="0" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C144" s="0" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C147" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C152" s="0" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C155" s="0" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C158" s="0" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C161" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
